--- a/output/resultados.xlsx
+++ b/output/resultados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,22 +479,25 @@
           <t>estado</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>moneda</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/04/2024</t>
+          <t>24-04-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Youssef Assbaghi</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>212.16</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -503,27 +506,28 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>% de IVA IVA Total(IVA</t>
+          <t>s and amounts set out in this invoice and</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>203584522001023128_100465367718</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ES-CN-ASE-2024-9055.pdf</t>
+          <t>203584522001023128_2288021022024022801368045010083.pdf</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
+          <t>Revisión manual</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -533,13 +537,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dirección del cliente: Amazon Services Europe S.à r.l.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-3.05</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -548,43 +550,46 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>% de IVA IVA Total(IVA</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>ES-CN-ASE-2024-9055</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-2375599.pdf</t>
+          <t>ES-CN-ASE-2024-9055.pdf</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>OK</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>31/05/2024</t>
+          <t>30/04/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adresse du vendeur:</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>-138.22</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -593,43 +598,46 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Btw% Btw Totaal</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>LU-CN-ASE-2024-2375599</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-9058804.pdf</t>
+          <t>LU-CN-ASE-2024-2375599.pdf</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/04/2024</t>
+          <t>31/05/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Adresse d'affaires: Amazon Services Europe S.à r.l.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>139.13</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -638,40 +646,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-2656639</t>
+          <t>LU-ASE-2024-9058804</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-2656639.pdf</t>
+          <t>LU-ASE-2024-9058804.pdf</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>31/05/2024</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>-29.2</v>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -679,7 +694,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -689,15 +704,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-10932739.pdf</t>
+          <t>LU-CN-ASE-2024-2656639.pdf</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
@@ -709,13 +729,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Adresse du vendeur:</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -724,43 +742,46 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Btw% Btw Totaal</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>LU-ASE-2024-10932739</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-9714507.pdf</t>
+          <t>LU-ASE-2024-10932739.pdf</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/06/2024</t>
+          <t>31/05/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Adresse du vendeur:</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>215.1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -769,43 +790,46 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Btw% Btw Totaal</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>LU-ASE-2024-9714507</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-13212227.pdf</t>
+          <t>LU-ASE-2024-9714507.pdf</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>31/05/2024</t>
+          <t>30/06/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Zakelijk adres: Amazon Services Europe S.à r.l.</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4.62</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -814,43 +838,46 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>% btw btw Totaal</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>LU-ASE-2024-13212227</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-3129983.pdf</t>
+          <t>LU-ASE-2024-13212227.pdf</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30/06/2024</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Adresse du vendeur: Amazon Services Europe S.à r.l.</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>-25.2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -859,81 +886,89 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-4237787</t>
+          <t>btw</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-4237787.pdf</t>
+          <t>LU-CN-ASE-2024-3129983.pdf</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30/06/2024</t>
+          <t>15-01-2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>e ID: 631710917</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>AURICULARES</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>IA Uds.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Cliente</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-12899315.pdf</t>
+          <t>Factura 15-01-2024 Forever.pdf</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
-        </is>
-      </c>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30/04/2024</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Youssef Assbaghi</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>-12.32</v>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -941,7 +976,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Btw% Btw Totaal</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -951,30 +986,37 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-7446817.pdf</t>
+          <t>LU-CN-ASE-2024-4237787.pdf</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30/04/2024</t>
+          <t>30/06/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>e:</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -982,85 +1024,91 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>LU-ASE-2024-12899315</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-2604436.pdf</t>
+          <t>LU-ASE-2024-12899315.pdf</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30/06/2024</t>
+          <t>15-01-2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Zakelijk adres: Amazon Services Europe S.à r.l.</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>e ID: 84254908601</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>136</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>PIZARRA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>% btw btw Totaal</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>2024000540</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-4276132.pdf</t>
+          <t>Factura 15-01-2024.pdf</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
-        </is>
-      </c>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30/06/2024</t>
+          <t>30/04/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>71.56999999999999</v>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -1068,44 +1116,45 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>LU-ASE-2024-7446817</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-13504579.pdf</t>
+          <t>LU-ASE-2024-7446817.pdf</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>24-06-04</t>
+          <t>30/04/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Wins Fire Light Store Alibaba.com Singapore E-Commerce Private Limited</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1097.62</t>
-        </is>
-      </c>
+          <t>e:</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -1113,43 +1162,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S Qty Discount Tax Rate Tax Amount Amount(In EUR)</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ES011032024060400296304</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3036395471296489_payment.pdf</t>
+          <t>LU-CN-ASE-2024-2604436.pdf</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
+          <t>Revisión manual</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>31/05/2024</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>snamn:</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-2.88</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1158,40 +1206,47 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Moms</t>
+          <t>btw</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-3166074.pdf</t>
+          <t>LU-CN-ASE-2024-4276132.pdf</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30/04/2024</t>
+          <t>30/06/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2.25</v>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -1199,43 +1254,46 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>LU-ASE-2024-13504579</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-8505761.pdf</t>
+          <t>LU-ASE-2024-13504579.pdf</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>31/05/2024</t>
+          <t>24-06-04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>snamn:</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Wins Fire Light Store Alibaba.com Singapore E-Commerce Private Limited</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1097.62</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1244,43 +1302,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>S Qty Discount Tax Rate Tax Amount Amount(In EUR)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Moms</t>
+          <t>ES011032024060400296304</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-3166075.pdf</t>
+          <t>3036395471296489_payment.pdf</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
-        </is>
-      </c>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>24-07-03</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>565.49</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1289,43 +1346,46 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>s and amounts set out in this invoice and</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>209326786001023128_100483749031</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>209326786001023128_2288021022024042206700530010083.pdf</t>
+          <t>LU-CN-ASE-2024-3166074.pdf</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>31/05/2024</t>
+          <t>30/04/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Dirección del cliente: Amazon Services Europe S.à r.l.</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1334,43 +1394,46 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>% de IVA IVA Total(IVA</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>LU-ASE-2024-8505761</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-3505296.pdf</t>
+          <t>LU-ASE-2024-8505761.pdf</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>OK</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30/06/2024</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>snamn:</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1379,43 +1442,46 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Moms</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-4069040.pdf</t>
+          <t>LU-CN-ASE-2024-3166075.pdf</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30/06/2024</t>
+          <t>24-07-03</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>snamn:</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>565.49</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1424,17 +1490,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>s and amounts set out in this invoice and</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Moms</t>
+          <t>209326786001023128_100483749031</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-4455758.pdf</t>
+          <t>209326786001023128_2288021022024042206700530010083.pdf</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1445,6 +1511,7 @@
           <t>Revisión manual</t>
         </is>
       </c>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1454,13 +1521,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Adresse d'affaires: Amazon Services Europe S.à r.l.</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-43.93</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1469,40 +1534,47 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-3574043</t>
+          <t>LU-CN-ASE-2024-3505296</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-3574043.pdf</t>
+          <t>LU-CN-ASE-2024-3505296.pdf</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30/06/2024</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>snamn:</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -1510,43 +1582,46 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-12810278</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-12810278.pdf</t>
+          <t>LU-CN-ASE-2024-4069040.pdf</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30/04/2024</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Adresse du vendeur:</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1555,7 +1630,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1565,30 +1640,37 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-6901409.pdf</t>
+          <t>LU-CN-ASE-2024-4455758.pdf</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>31/05/2024</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Amazon Online Spain, S.L.</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-4.41</v>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -1596,40 +1678,47 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Precio % de IVA Precio Total</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>ES-AOES-2024-247134.pdf</t>
+          <t>LU-CN-ASE-2024-3574043.pdf</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
           <t>OK</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30/06/2024</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>e:</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -1637,7 +1726,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1647,30 +1736,37 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-4154473.pdf</t>
+          <t>LU-ASE-2024-12810278.pdf</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30/06/2024</t>
+          <t>30/04/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dirección del vendedor:</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>626.99</v>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -1678,44 +1774,45 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>% de IVA IVA Total</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>FISCAL</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-11606585.pdf</t>
+          <t>LU-ASE-2024-6901409.pdf</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>OK</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30/04/2024</t>
+          <t>31/05/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Adresse du vendeur:</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
+          <t>Amazon Online Spain, S.L.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -1723,43 +1820,42 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Btw% Btw Totaal</t>
+          <t>Precio % de IVA Precio Total</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-7192817.pdf</t>
+          <t>ES-AOES-2024-247134.pdf</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
-        </is>
-      </c>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30/06/2024</t>
+          <t>24-04-01</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dirección del vendedor:</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>682.13</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1768,27 +1864,28 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Comisión por servicios FBA EUR 0.04 0.00% EUR 0.00 EUR 0.04</t>
+          <t>s and amounts set out in this invoice and</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>205692943001023128_100467190896</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-11606521.pdf</t>
+          <t>205692943001023128_2288021022024032001828395010083.pdf</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
+          <t>Revisión manual</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1798,7 +1895,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Youssef Assbaghi</t>
+          <t>e:</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1809,7 +1906,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Btw% Btw Totaal</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1819,33 +1916,32 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-12110514.pdf</t>
+          <t>LU-CN-ASE-2024-4154473.pdf</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
           <t>Revisión manual</t>
         </is>
       </c>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>24-06-02</t>
+          <t>30/06/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>EELHOE Beautiful Care Store Store Alibaba.com Singapore E-Commerce Private Limited</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>643.30</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>771.4</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1854,77 +1950,79 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>S Qty Discount Tax Rate Tax Amount Amount(In EUR)</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ES011032024060200119253</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3035991449746489_payment.pdf</t>
+          <t>LU-ASE-2024-11606585.pdf</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
           <t>OK</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>31/05/2024</t>
+          <t>04-03-2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Dirección del cliente: Amazon Services Europe S.à r.l.</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>e ID: 631710917</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>AURICULARES</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>% de IVA IVA Total(IVA</t>
+          <t>AURICULARES INALAMBRICOS 21 333 12. 00 3, 996. 00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>Cliente</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-3347099.pdf</t>
+          <t>Factura 04-03-2024.pdf</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>30/04/2024</t>
+          <t>24-04-01</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1932,10 +2030,8 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="C35" t="n">
+        <v>198.58</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1944,66 +2040,74 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>s and amounts set out in this invoice and</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>206659266501023128_100470886869</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-7092976.pdf</t>
+          <t>206659266501023128_2288021022024032706088375010083.pdf</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
           <t>Revisión manual</t>
         </is>
       </c>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>30.06.2024</t>
+          <t>30/04/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>115.45</v>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Auriculares</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>(IVA excluida)</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Youssef</t>
+          <t>LU-ASE-2024-7192817</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>ES-2191673415-2024-6.pdf</t>
+          <t>LU-ASE-2024-7192817.pdf</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
           <t>OK</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
@@ -2015,13 +2119,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Adresse du vendeur:</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>732.0599999999999</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2030,7 +2132,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2040,48 +2142,55 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-12160019.pdf</t>
+          <t>LU-ASE-2024-11606521.pdf</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MELUA SMART GROUP S.L.</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>23,90</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>18.84</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Detox</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Cant. P. Unitario IVA % P. Unitario Precio total</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ción</t>
+          <t>LU-ASE-2024-12110514</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>invoice (1).pdf</t>
+          <t>LU-ASE-2024-12110514.pdf</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -2090,13 +2199,18 @@
       <c r="I38" t="inlineStr">
         <is>
           <t>OK</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>24-06-04</t>
+          <t>24-06-02</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2104,10 +2218,8 @@
           <t>EELHOE Beautiful Care Store Store Alibaba.com Singapore E-Commerce Private Limited</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>710.45</t>
-        </is>
+      <c r="C39" t="n">
+        <v>643.3</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2121,12 +2233,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ES011032024060400296305</t>
+          <t>ES011032024060200119253</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>3036395471316489_payment.pdf</t>
+          <t>3035991449746489_payment.pdf</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -2137,11 +2249,12 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>24-04-01</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2149,10 +2262,8 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>75,00</t>
-        </is>
+      <c r="C40" t="n">
+        <v>355.05</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2161,43 +2272,42 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>s and amounts set out in this invoice and</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>F1-24050173</t>
+          <t>203375463501023128_100465287637</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>F1-24050173.PDF</t>
+          <t>203375463501023128_2288021022024022800965020010083.pdf</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
           <t>Revisión manual</t>
         </is>
       </c>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30/06/2024</t>
+          <t>31/05/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Adresse du vendeur:</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>-172.85</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2206,25 +2316,30 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>LU-CN-ASE-2024-3347099</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-12160027.pdf</t>
+          <t>LU-CN-ASE-2024-3347099.pdf</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
@@ -2236,10 +2351,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Amazon Online Spain, S.L.</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>206.07</v>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -2247,32 +2364,37 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Precio % de IVA Precio Total</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>ES-AOES-2024-234974.pdf</t>
+          <t>LU-ASE-2024-7092976.pdf</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
           <t>OK</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>30.04.2024</t>
+          <t>30.06.2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2298,7 +2420,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>ES-2191673415-2024-4.pdf</t>
+          <t>ES-2191673415-2024-6.pdf</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -2309,22 +2431,21 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>24-06-04</t>
+          <t>30/06/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>L Store Alibaba.com Singapore E-Commerce Private Limited</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>1264.21</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>68.06</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2333,68 +2454,70 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>S Qty Discount Tax Rate Tax Amount Amount(In EUR)</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ES011032024060400302546</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>3036373655996489_payment.pdf</t>
+          <t>LU-ASE-2024-12160019.pdf</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>31.05.2024</t>
-        </is>
-      </c>
+      <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>MELUA SMART GROUP S.L.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Auriculares</t>
+          <t>Detox</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>(IVA excluida)</t>
+          <t>Cant. P. Unitario IVA % P. Unitario Precio total</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Youssef</t>
+          <t>ción</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>ES-2191673415-2024-5.pdf</t>
+          <t>invoice (1).pdf</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2407,10 +2530,8 @@
           <t>EELHOE Beautiful Care Store Store Alibaba.com Singapore E-Commerce Private Limited</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>269.81</t>
-        </is>
+      <c r="C46" t="n">
+        <v>710.45</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2424,12 +2545,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ES011032024060400302484</t>
+          <t>ES011032024060400296305</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>3036373656036489_payment.pdf</t>
+          <t>3036395471316489_payment.pdf</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -2440,16 +2561,17 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>31/05/2024</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>e:</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2465,38 +2587,37 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>F1-24050173</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-3323493.pdf</t>
+          <t>F1-24050173.PDF</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
           <t>Revisión manual</t>
         </is>
       </c>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>24-07-03</t>
+          <t>30/06/2024</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>944.76</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>11.22</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2505,89 +2626,87 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>s and amounts set out in this invoice and</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>209096651501023128_100482854697</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>209096651501023128_2288021022024042206761355010083.pdf</t>
+          <t>LU-ASE-2024-12160027.pdf</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>24-07-03</t>
+          <t>20-02-2024</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>553.56</t>
-        </is>
-      </c>
+          <t>e ID: 631710917</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>casco</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>s and amounts set out in this invoice and</t>
+          <t>auriculares P9[OFERTA] WF HHL 21 580 3.50 2, 030. 00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>207227318501023128_100475269848</t>
+          <t>2024000445</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>207227318501023128_2288021022024040223025025010083.pdf</t>
+          <t>Factura 20-02-2024.pdf</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
-        </is>
-      </c>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>30/06/2024</t>
+          <t>30/04/2024</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Dirección del vendedor: Amazon Services Europe S.à r.l.</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Amazon Online Spain, S.L.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -2595,17 +2714,17 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>% de IVA IVA Total(IVA</t>
+          <t>Precio % de IVA Precio Total</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-4308921.pdf</t>
+          <t>ES-AOES-2024-234974.pdf</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -2616,64 +2735,64 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>30/04/2024</t>
+          <t>30.04.2024</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Adresse du vendeur:</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Auriculares</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>(IVA excluida)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Youssef</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-6901441.pdf</t>
+          <t>ES-2191673415-2024-4.pdf</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
-        </is>
-      </c>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>31/05/2024</t>
+          <t>24-06-04</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Dirección del vendedor:</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
+          <t>L Store Alibaba.com Singapore E-Commerce Private Limited</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1264.21</v>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -2681,17 +2800,17 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>% de IVA IVA Total</t>
+          <t>S Qty Discount Tax Rate Tax Amount Amount(In EUR)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>FISCAL</t>
+          <t>ES011032024060400302546</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-9276674.pdf</t>
+          <t>3036373655996489_payment.pdf</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -2702,41 +2821,38 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>30/04/2024</t>
+          <t>31.05.2024</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Dirección del vendedor:</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Auriculares</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Comisión por servicios FBA EUR 220.89 0.00% EUR 0.00 EUR 220.89</t>
+          <t>(IVA excluida)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>Youssef</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-6803900.pdf</t>
+          <t>ES-2191673415-2024-5.pdf</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -2747,22 +2863,21 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>30/06/2024</t>
+          <t>24-06-04</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Adresse du vendeur: Amazon Services Europe S.à r.l.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>EELHOE Beautiful Care Store Store Alibaba.com Singapore E-Commerce Private Limited</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>269.81</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2771,44 +2886,41 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>S Qty Discount Tax Rate Tax Amount Amount(In EUR)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-4370535</t>
+          <t>ES011032024060400302484</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-4370535.pdf</t>
+          <t>3036373656036489_payment.pdf</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
-        </is>
-      </c>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>30/04/2024</t>
+          <t>31/05/2024</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Adresse d'affaires: Amazon Services Europe S.à r.l.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>e:</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -2821,22 +2933,23 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-2493009</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-2493009.pdf</t>
+          <t>LU-CN-ASE-2024-3323493.pdf</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
           <t>Revisión manual</t>
         </is>
       </c>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2849,10 +2962,8 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>887.43</t>
-        </is>
+      <c r="C56" t="n">
+        <v>944.76</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2866,12 +2977,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>211351143001023128_100494245467</t>
+          <t>209096651501023128_100482854697</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>211351143001023128_2288021022024051423963595010083.pdf</t>
+          <t>209096651501023128_2288021022024042206761355010083.pdf</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -2882,19 +2993,22 @@
           <t>Revisión manual</t>
         </is>
       </c>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>31/05/2024</t>
+          <t>24-07-03</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>snamn:</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>553.5599999999999</v>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -2902,17 +3016,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>s and amounts set out in this invoice and</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-9392296</t>
+          <t>207227318501023128_100475269848</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-9392296.pdf</t>
+          <t>207227318501023128_2288021022024040223025025010083.pdf</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -2923,6 +3037,7 @@
           <t>Revisión manual</t>
         </is>
       </c>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2932,10 +3047,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>snamn:</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>-6.75</v>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -2943,43 +3060,46 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-12449334</t>
+          <t>LU-CN-ASE-2024-4308921</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-12449334.pdf</t>
+          <t>LU-CN-ASE-2024-4308921.pdf</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>24-07-03</t>
+          <t>30/04/2024</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>303.96</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>270.24</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2988,84 +3108,88 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>s and amounts set out in this invoice and</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>208719338001023128_100482004607</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>208719338001023128_2288021022024041603030470010083.pdf</t>
+          <t>LU-ASE-2024-6901441.pdf</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>June 22, 2024</t>
+          <t>18-03-2024</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>support@helium10.com sermanker@gmail.com</t>
+          <t>e ID: 631710917</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>AURICULARES</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>IVAR. nds. Precio D.% Subtotal.</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>D63F8649</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Invoice-D63F8649-0004.pdf</t>
+          <t>Factura 17-03-2024.pdf</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
-        </is>
-      </c>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>30.04.2024</t>
+          <t>31/05/2024</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>hunanshengshuonengdianzishangwuyouxiangongsi</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>69,99</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>300.5</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3074,25 +3198,30 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Cant. P. Unitario IVA % P. Unitario Precio total</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Pagado</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>invoice (3).pdf</t>
+          <t>LU-ASE-2024-9276674.pdf</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
           <t>OK</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
@@ -3104,10 +3233,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>snamn:</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1.44</v>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -3115,39 +3246,46 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-8780595</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-8780595.pdf</t>
+          <t>LU-ASE-2024-6803900.pdf</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr"/>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Amazon EU S.à r.l., Sucursal en España</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>19,89</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>-11.6</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -3156,43 +3294,46 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Cant. P. Unitario IVA % P. Unitario Precio total</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Pagado</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>invoice.pdf</t>
+          <t>LU-CN-ASE-2024-4370535.pdf</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
           <t>OK</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>31/05/2024</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>-73.56</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -3201,7 +3342,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3211,22 +3352,27 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-9560336.pdf</t>
+          <t>LU-CN-ASE-2024-2493009.pdf</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>30/06/2024</t>
+          <t>24-07-03</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3234,10 +3380,8 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="C65" t="n">
+        <v>887.4299999999999</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -3246,40 +3390,43 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>s and amounts set out in this invoice and</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>211351143001023128_100494245467</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-12984501.pdf</t>
+          <t>211351143001023128_2288021022024051423963595010083.pdf</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
           <t>Revisión manual</t>
         </is>
       </c>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>30/04/2024</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>snamn:</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -3287,43 +3434,46 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-8780596</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-8780596.pdf</t>
+          <t>LU-ASE-2024-9392296.pdf</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>24-06-02</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>High Quality Headphones Store Alibaba.com Singapore E-Commerce Private Limited</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>867.14</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -3332,43 +3482,46 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S Qty Discount Tax Rate Tax Amount Amount(In EUR)</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ES011032024060200119275</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>3035991449796489_payment.pdf</t>
+          <t>LU-ASE-2024-12449334.pdf</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
           <t>OK</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>24-06-02</t>
+          <t>24-07-03</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>KDULIT Factory Store Alibaba.com Singapore E-Commerce Private Limited</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>982.16</t>
-        </is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>303.96</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -3377,44 +3530,41 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>S Qty Discount Tax Rate Tax Amount Amount(In EUR)</t>
+          <t>s and amounts set out in this invoice and</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ES011032024060200119358</t>
+          <t>208719338001023128_100482004607</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>3035991449816489_payment.pdf</t>
+          <t>208719338001023128_2288021022024041603030470010083.pdf</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
+          <t>Revisión manual</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>30/04/2024</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Adresse du vendeur:</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -3422,44 +3572,41 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Btw% Btw Totaal</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>F1-24020083</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-7192830.pdf</t>
+          <t>F1-24020083.PDF</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
           <t>Revisión manual</t>
         </is>
       </c>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>30/06/2024</t>
+          <t>June 22, 2024</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Zakelijk adres: Amazon Services Europe S.à r.l.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>support@helium10.com sermanker@gmail.com</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -3467,17 +3614,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>% btw btw Totaal</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>D63F8649</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-3962980.pdf</t>
+          <t>Invoice-D63F8649-0004.pdf</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -3488,15 +3635,22 @@
           <t>Revisión manual</t>
         </is>
       </c>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr"/>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>support@helium10.com sermanker@gmail.com</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>12.15</v>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -3504,93 +3658,97 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>D63F8649</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Invoice-D63F8649-0002.pdf</t>
+          <t>invoice (3).pdf</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>€</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>05-02-2024</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>159.</t>
-        </is>
-      </c>
+          <t>e ID: 631710917</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PIZARRA</t>
+          <t>AURICULARES</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>CAPSULAS NESRRESSO CACTUS METAL/BAMBU 21</t>
+          <t>AURICULARES INALAMBRICOS 21 175 12. 00 2, 100. 00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>WhatsApp Image 2025-03-27 at 14.15.52 (3).jpeg</t>
+          <t>Factura 05-02-2024.pdf</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
-        </is>
-      </c>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>29/12/2024</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>E:</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Sushi</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sushi</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3600,34 +3758,31 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>WhatsApp Image 2025-03-27 at 14.15.52.jpeg</t>
+          <t>LU-ASE-2024-8780595.pdf</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>31/05/2024</t>
-        </is>
-      </c>
+      <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Dirección del vendedor:</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
+          <t>Amazon EU S.à r.l., Sucursal en España</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -3635,17 +3790,17 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Comisión por servicios FBA EUR 36.56 0.00% EUR 0.00 EUR 36.56</t>
+          <t>Cant. P. Unitario IVA % P. Unitario Precio total</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>Pagado</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-9276640.pdf</t>
+          <t>invoice.pdf</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -3656,6 +3811,7 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3665,10 +3821,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Youssef Assbaghi</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>300.61</v>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -3676,7 +3834,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Btw% Btw Totaal</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3686,22 +3844,27 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-9623312.pdf</t>
+          <t>LU-ASE-2024-9560336.pdf</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>30/04/2024</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3722,12 +3885,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>F1-24010614</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-7092986.pdf</t>
+          <t>F1-24010614.PDF</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -3738,19 +3901,22 @@
           <t>Revisión manual</t>
         </is>
       </c>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>May 22, 2024</t>
+          <t>30/06/2024</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>support@helium10.com sermanker@gmail.com</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>27.94</v>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -3758,43 +3924,46 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>D63F8649</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Invoice-D63F8649-0003.pdf</t>
+          <t>LU-ASE-2024-12984501.pdf</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>30/04/2024</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Youssef Assbaghi</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3803,40 +3972,47 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ES-CN-ASE-2024-8865</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>ES-CN-ASE-2024-8865.pdf</t>
+          <t>LU-ASE-2024-8780596.pdf</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>30/06/2024</t>
+          <t>24-06-02</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Zakelijk adres: Amazon Services Europe S.à r.l.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
+          <t>High Quality Headphones Store Alibaba.com Singapore E-Commerce Private Limited</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>867.14</v>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -3844,40 +4020,43 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Btw% Btw Totaal</t>
+          <t>S Qty Discount Tax Rate Tax Amount Amount(In EUR)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>ES011032024060200119275</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-11940163.pdf</t>
+          <t>3035991449796489_payment.pdf</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
-        </is>
-      </c>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>30/06/2024</t>
+          <t>24-06-02</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Amazon Online Spain, S.L.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
+          <t>KDULIT Factory Store Alibaba.com Singapore E-Commerce Private Limited</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>982.16</v>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -3885,17 +4064,17 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Precio % de IVA Precio Total</t>
+          <t>S Qty Discount Tax Rate Tax Amount Amount(In EUR)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>ES011032024060200119358</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>ES-AOES-2024-343885.pdf</t>
+          <t>3035991449816489_payment.pdf</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -3906,19 +4085,22 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>April 22, 2024</t>
+          <t>30/04/2024</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>support@helium10.com sermanker@gmail.com</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>80.61</v>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -3926,43 +4108,46 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>D63F8649</t>
+          <t>LU-ASE-2024-7192830</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Invoice-D63F8649-0001.pdf</t>
+          <t>LU-ASE-2024-7192830.pdf</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>24-06-04</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LINGKUN Choice Store Alibaba.com Singapore E-Commerce Private Limited</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>1174.18</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>-22.05</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3971,134 +4156,135 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>S Qty Discount Tax Rate Tax Amount Amount(In EUR)</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>ES011032024060400296073</t>
+          <t>btw</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>3036395471346489_payment.pdf</t>
+          <t>LU-CN-ASE-2024-3962980.pdf</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>25/09/2024</t>
-        </is>
-      </c>
+      <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
-          <t>e: 43020569</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>140,94</t>
-        </is>
-      </c>
+          <t>support@helium10.com sermanker@gmail.com</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>D63F8649</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Invoice-D63F8649-0002.pdf</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Revisión manual</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>159</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>PIZARRA</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Pagina</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>WhatsApp Image 2025-03-27 at 14.15.52 (1).jpeg</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr"/>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Amazon EU S.à r.l., Sucursal en España</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>13,16</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Cant. P. Unitario IVA % P. Unitario Precio total</t>
+          <t>CAPSULAS NESRRESSO CACTUS METAL/BAMBU 21</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>ción</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>invoice (2).pdf</t>
+          <t>WhatsApp Image 2025-03-27 at 14.15.52 (3).jpeg</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
+          <t>Revisión manual</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>31/05/2024</t>
+          <t>29/12/2024</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>E:</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Sushi</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Sushi</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4108,30 +4294,33 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-10932740.pdf</t>
+          <t>WhatsApp Image 2025-03-27 at 14.15.52.jpeg</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
-        </is>
-      </c>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>30/04/2024</t>
+          <t>31/05/2024</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Zakelijk adres: Amazon Services Europe S.à r.l.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>27.96</v>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -4139,7 +4328,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Btw% Btw Totaal</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4149,33 +4338,36 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-7446824.pdf</t>
+          <t>LU-ASE-2024-9276640.pdf</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>24-07-03</t>
+          <t>31/05/2024</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>553.39</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>196.63</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -4184,32 +4376,37 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>s and amounts set out in this invoice and</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>209533702001023128_100488855079</t>
+          <t>LU-ASE-2024-9623312</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>209533702001023128_2288021022024042407838770010083.pdf</t>
+          <t>LU-ASE-2024-9623312.pdf</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>30/04/2024</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4217,11 +4414,7 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>75,00</t>
-        </is>
-      </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -4234,12 +4427,12 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>F1-24040080</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>F1-24040080.PDF</t>
+          <t>LU-ASE-2024-7092986.pdf</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -4250,23 +4443,20 @@
           <t>Revisión manual</t>
         </is>
       </c>
+      <c r="J88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>31/05/2024</t>
+          <t>May 22, 2024</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Adresse d'affaires: Amazon Services Europe S.à r.l.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>support@helium10.com sermanker@gmail.com</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -4279,12 +4469,12 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-3202747</t>
+          <t>D63F8649</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-3202747.pdf</t>
+          <t>Invoice-D63F8649-0003.pdf</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -4295,19 +4485,22 @@
           <t>Revisión manual</t>
         </is>
       </c>
+      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>30/04/2024</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Dirección del vendedor:</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>-7.84</v>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -4315,43 +4508,46 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>% de IVA IVA Total</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>FISCAL</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-6804031.pdf</t>
+          <t>ES-CN-ASE-2024-8865.pdf</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
           <t>OK</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>31/05/2024</t>
+          <t>30/06/2024</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Adresse du vendeur:</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>13.86</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -4360,44 +4556,45 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>LU-ASE-2024-11940163</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-9481381.pdf</t>
+          <t>LU-ASE-2024-11940163.pdf</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>24-06-04</t>
+          <t>30/06/2024</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>L Store Alibaba.com Singapore E-Commerce Private Limited</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>1260.58</t>
-        </is>
-      </c>
+          <t>Amazon Online Spain, S.L.</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -4405,17 +4602,17 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>S Qty Discount Tax Rate Tax Amount Amount(In EUR)</t>
+          <t>Precio % de IVA Precio Total</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>ES011032024060400303248</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>3036395559356489_payment.pdf</t>
+          <t>ES-AOES-2024-343885.pdf</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -4426,16 +4623,17 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>31/05/2024</t>
+          <t>April 22, 2024</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>support@helium10.com sermanker@gmail.com</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4451,22 +4649,23 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>D63F8649</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-10608248.pdf</t>
+          <t>Invoice-D63F8649-0001.pdf</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
           <t>Revisión manual</t>
         </is>
       </c>
+      <c r="J93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4476,13 +4675,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Shop1103404396 Store Alibaba.com Singapore E-Commerce Private Limited</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>1124.00</t>
-        </is>
+          <t>LINGKUN Choice Store Alibaba.com Singapore E-Commerce Private Limited</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1174.18</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -4496,12 +4693,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>ES011032024060400309337</t>
+          <t>ES011032024060400296073</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>3036227539566489_payment.pdf</t>
+          <t>3036395471346489_payment.pdf</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -4512,22 +4709,23 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="J94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>31/05/2024</t>
+          <t>25/09/2024</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>e: 43020569</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>PIZARRA</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4537,39 +4735,32 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Pagina</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-9560352.pdf</t>
+          <t>WhatsApp Image 2025-03-27 at 14.15.52 (1).jpeg</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
-        </is>
-      </c>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>24-07-03</t>
-        </is>
-      </c>
+      <c r="A96" t="inlineStr"/>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>2914.91</t>
-        </is>
-      </c>
+          <t>Amazon EU S.à r.l., Sucursal en España</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -4577,40 +4768,43 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>s and amounts set out in this invoice and</t>
+          <t>Cant. P. Unitario IVA % P. Unitario Precio total</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>215448210001023128_100510678536</t>
+          <t>ción</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>215448210001023128_2288021022024062502229035010083.pdf</t>
+          <t>invoice (2).pdf</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
-        </is>
-      </c>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>30/06/2024</t>
+          <t>31/05/2024</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -4618,37 +4812,38 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>LU-ASE-2024-10932740</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-12609925.pdf</t>
+          <t>LU-ASE-2024-10932740.pdf</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>June 22, 2024</t>
-        </is>
-      </c>
+      <c r="A98" t="inlineStr"/>
       <c r="B98" t="inlineStr">
         <is>
-          <t>548 Market Street Youssef assbaghi</t>
+          <t>Amazon EU S.à r.l., Sucursal en España</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4659,43 +4854,42 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Cant. P. Unitario IVA % P. Unitario Precio total</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1A98076C</t>
+          <t>ción</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Invoice-1A98076C-0006.pdf</t>
+          <t>invoice 2.pdf</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
-        </is>
-      </c>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>30/06/2024</t>
+          <t>30/04/2024</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Dirección del vendedor: Amazon Services Europe S.à r.l.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>36.54</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -4704,43 +4898,46 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>% de IVA IVA Total(IVA</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>LU-ASE-2024-7446824</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-3875118.pdf</t>
+          <t>LU-ASE-2024-7446824.pdf</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
           <t>OK</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>24-06-02</t>
+          <t>24-07-03</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>LINGKUN Choice Store Alibaba.com Singapore E-Commerce Private Limited</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>1112.36</t>
-        </is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>553.39</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -4749,32 +4946,33 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>S Qty Discount Tax Rate Tax Amount Amount(In EUR)</t>
+          <t>s and amounts set out in this invoice and</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>ES011032024060200119286</t>
+          <t>209533702001023128_100488855079</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>3035991449776489_payment.pdf</t>
+          <t>209533702001023128_2288021022024042407838770010083.pdf</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
+          <t>Revisión manual</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>24-05-25</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4782,11 +4980,7 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>399.27</t>
-        </is>
-      </c>
+      <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -4794,39 +4988,42 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>s and amounts set out in this invoice and</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>209898707501023128_100491124321</t>
+          <t>F1-24040080</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>209898707501023128_2288021022024043003681330010083.pdf</t>
+          <t>F1-24040080.PDF</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
           <t>Revisión manual</t>
         </is>
       </c>
+      <c r="J101" t="inlineStr"/>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr"/>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Amazon EU S.à r.l., Sucursal en España</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>13,16</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>-37.58</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -4835,25 +5032,30 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Cant. P. Unitario IVA % P. Unitario Precio total</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>ción</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>invoice (4).pdf</t>
+          <t>LU-CN-ASE-2024-3202747.pdf</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
           <t>OK</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
@@ -4865,13 +5067,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Dirección del cliente: Amazon Services Europe S.à r.l.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>890.27</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -4880,43 +5080,46 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>% de IVA IVA Total(IVA</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-2764490.pdf</t>
+          <t>LU-ASE-2024-6804031.pdf</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
           <t>OK</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>30/04/2024</t>
+          <t>31/05/2024</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Zakelijk adres: Amazon Services Europe S.à r.l.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>358.67</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -4925,7 +5128,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>% btw btw Totaal</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4935,33 +5138,36 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>LU-CN-ASE-2024-2764645.pdf</t>
+          <t>LU-ASE-2024-9481381.pdf</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>24-06-04</t>
+          <t>24-03-10</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Shop1103404396 Store Alibaba.com Singapore E-Commerce Private Limited</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>1124.00</t>
-        </is>
+          <t>Shop1103012292 Store Alibaba.com Singapore E-Commerce Private Limited</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>655.5599999999999</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -4975,12 +5181,12 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>ES011032024060400309621</t>
+          <t>ES011032024031000239605</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>3036620394706489_payment.pdf</t>
+          <t>3031909605316489_payment.pdf</t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -4991,31 +5197,30 @@
           <t>OK</t>
         </is>
       </c>
+      <c r="J105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>10-12-2023</t>
+          <t>03-03-2024</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>e ID: 631710917</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>1,</t>
-        </is>
+          <t>e ID: 47986027</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>64</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ALTAVOZ</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>AURICULARES INALAMBRICOS</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5025,33 +5230,32 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>WhatsApp Image 2025-03-27 at 14.15.52 (2).jpeg</t>
+          <t>Factura 03-03-2024.pdf</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
+          <t>Revisión manual</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>31/05/2024</t>
+          <t>24-06-04</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Adresse du vendeur:</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+          <t>L Store Alibaba.com Singapore E-Commerce Private Limited</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>1260.58</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -5060,43 +5264,42 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>S Qty Discount Tax Rate Tax Amount Amount(In EUR)</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>ES011032024060400303248</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-9481391.pdf</t>
+          <t>3036395559356489_payment.pdf</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
-        </is>
-      </c>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>24-06-04</t>
+          <t>31/05/2024</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Shop1103404396 Store Alibaba.com Singapore E-Commerce Private Limited</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>1093.09</t>
-        </is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -5105,43 +5308,46 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>S Qty Discount Tax Rate Tax Amount Amount(In EUR)</t>
+          <t>Factura o nota de crédito Amazon</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>ES011032024060400308756</t>
+          <t>LU-ASE-2024-10608248</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>3036398430406489_payment.pdf</t>
+          <t>LU-ASE-2024-10608248.pdf</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
           <t>OK</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>30/06/2024</t>
+          <t>24-06-04</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Adresse du vendeur:</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+          <t>Shop1103404396 Store Alibaba.com Singapore E-Commerce Private Limited</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>1124</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -5150,27 +5356,28 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Btw% Btw Totaal</t>
+          <t>S Qty Discount Tax Rate Tax Amount Amount(In EUR)</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>ES011032024060400309337</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-13529768.pdf</t>
+          <t>3036227539566489_payment.pdf</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
-        </is>
-      </c>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5180,7 +5387,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Zakelijk adres: Amazon Services Europe S.à r.l.</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -5191,7 +5398,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Btw% Btw Totaal</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5201,71 +5408,77 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-9315378.pdf</t>
+          <t>LU-ASE-2024-9560352.pdf</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
           <t>Revisión manual</t>
         </is>
       </c>
+      <c r="J110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>April 22, 2024</t>
+          <t>22-01-2024</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>548 Market Street Youssef assbaghi</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
+          <t>e ID: 631710917</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>960</v>
+      </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>AURICULARES</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>AURICULARES INALAMBRICOS</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>1A98076C</t>
+          <t>2024000209</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Invoice-1A98076C-0004.pdf</t>
+          <t>Factura 22-01-2024 2.pdf</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
-        </is>
-      </c>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>31/05/2024</t>
+          <t>24-04-01</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>snamn:</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr"/>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>197.87</v>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -5273,17 +5486,17 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>s and amounts set out in this invoice and</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-9621216</t>
+          <t>203702158001023128_100459605805</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>LU-ASE-2024-9621216.pdf</t>
+          <t>203702158001023128_2288021022024022823447430010083.pdf</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -5294,19 +5507,22 @@
           <t>Revisión manual</t>
         </is>
       </c>
+      <c r="J112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>May 22, 2024</t>
+          <t>24-07-03</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>548 Market Street Youssef assbaghi</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>2914.91</v>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -5314,17 +5530,17 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>s and amounts set out in this invoice and</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>1A98076C</t>
+          <t>215448210001023128_100510678536</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Invoice-1A98076C-0005.pdf</t>
+          <t>215448210001023128_2288021022024062502229035010083.pdf</t>
         </is>
       </c>
       <c r="H113" t="n">
@@ -5333,6 +5549,871 @@
       <c r="I113" t="inlineStr">
         <is>
           <t>Revisión manual</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>LU-ASE-2024-12609925.pdf</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Revisión manual</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>June 22, 2024</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>OpenAI, LLC</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>ChatGPT Plus</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Suscripción mensual</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1A98076C</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Invoice-1A98076C-0006.pdf</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>-104.77</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Factura o nota de crédito Amazon</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>LU-CN-ASE-2024-3875118</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>LU-CN-ASE-2024-3875118.pdf</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>24-06-02</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>LINGKUN Choice Store Alibaba.com Singapore E-Commerce Private Limited</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>1112.36</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>S Qty Discount Tax Rate Tax Amount Amount(In EUR)</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>ES011032024060200119286</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>3035991449776489_payment.pdf</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>24-05-25</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>399.27</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>s and amounts set out in this invoice and</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>209898707501023128_100491124321</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>209898707501023128_2288021022024043003681330010083.pdf</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Revisión manual</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>04-01-2024</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>e ID: 631710917</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>8430173226716</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Cliente</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Factura 04-01-2024 rotulador.pdf</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Revisión manual</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Amazon EU S.à r.l., Sucursal en España</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Cant. P. Unitario IVA % P. Unitario Precio total</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>ción</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>invoice (4).pdf</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>30/04/2024</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>-10.72</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Factura o nota de crédito Amazon</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>LU-CN-ASE-2024-2764490</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>LU-CN-ASE-2024-2764490.pdf</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>-9.449999999999999</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Factura o nota de crédito Amazon</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>btw</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>LU-CN-ASE-2024-2764645.pdf</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>24-06-04</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Shop1103404396 Store Alibaba.com Singapore E-Commerce Private Limited</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>S Qty Discount Tax Rate Tax Amount Amount(In EUR)</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>ES011032024060400309621</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>3036620394706489_payment.pdf</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>10-12-2023</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>e ID: 631710917</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>ALTAVOZ</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>AURICULARES INALAMBRICOS</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Cliente</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>WhatsApp Image 2025-03-27 at 14.15.52 (2).jpeg</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>31/05/2024</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>144.27</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Factura o nota de crédito Amazon</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>LU-ASE-2024-9481391.pdf</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>24.02.22</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>SY20240222P9PLUS</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>PI Youssef SY20240222P9PLUS.pdf</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Revisión manual</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>24-06-04</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Shop1103404396 Store Alibaba.com Singapore E-Commerce Private Limited</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>1093.09</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>S Qty Discount Tax Rate Tax Amount Amount(In EUR)</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>ES011032024060400308756</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>3036398430406489_payment.pdf</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Factura o nota de crédito Amazon</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>LU-ASE-2024-13529768</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>LU-ASE-2024-13529768.pdf</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>31/05/2024</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>99.54000000000001</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Factura o nota de crédito Amazon</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>LU-ASE-2024-9315378</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>LU-ASE-2024-9315378.pdf</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>April 22, 2024</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>OpenAI, LLC</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>ChatGPT Plus</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Suscripción mensual</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1A98076C</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Invoice-1A98076C-0004.pdf</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Factura o nota de crédito Amazon</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>LU-ASE-2024-9621216.pdf</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>May 22, 2024</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>OpenAI, LLC</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>ChatGPT Plus</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Suscripción mensual</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1A98076C</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Invoice-1A98076C-0005.pdf</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>USD</t>
         </is>
       </c>
     </row>

--- a/output/resultados.xlsx
+++ b/output/resultados.xlsx
@@ -645,7 +645,9 @@
           <t>Ship to</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>4.3</v>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
@@ -663,11 +665,11 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -735,7 +737,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>612.49</v>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
@@ -753,7 +757,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -867,7 +871,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>1956.56</v>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
@@ -885,7 +891,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -909,7 +915,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>64.75</v>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
@@ -927,7 +935,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1095,7 +1103,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>54.31</v>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
@@ -1113,7 +1123,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1137,7 +1147,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
@@ -1155,7 +1167,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1238,7 +1250,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>IA Uds.</t>
+          <t>IA Uds. —</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1319,7 +1331,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>374.92</v>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
@@ -1337,7 +1351,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1362,7 +1376,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>29.82</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1501,7 +1515,9 @@
           <t>e:</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>20.07</v>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
@@ -1515,11 +1531,11 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>umero</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1543,7 +1559,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>1.08</v>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
@@ -1561,7 +1579,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1767,7 +1785,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>5.94</v>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
@@ -1785,7 +1805,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1858,7 +1878,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>59.63</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2411,7 +2431,9 @@
           <t>Dirección del vendedor: Amazon EU S.à r.l., Sucursal en España</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>20.13</v>
+      </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
@@ -2429,11 +2451,11 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2495,7 +2517,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>0.83</v>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
@@ -2513,7 +2537,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2627,7 +2651,9 @@
           <t>Amazon Online Spain, S.L.</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v>231.29</v>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
@@ -2645,11 +2671,11 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2715,7 +2741,9 @@
           <t>e:</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>5.76</v>
+      </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
@@ -2729,11 +2757,11 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>umero</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2805,7 +2833,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>326.64</v>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
@@ -2823,7 +2853,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3023,7 +3053,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="n">
+        <v>1.87</v>
+      </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
@@ -3041,7 +3073,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3291,7 +3323,9 @@
           <t>E 69322 PARQUE TECNOLOGICO WALQA CALLE FRANCESC MACIA, 31 4 1</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="n">
+        <v>8.289999999999999</v>
+      </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
@@ -3309,7 +3343,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3333,7 +3367,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>3729.74</v>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
@@ -3351,7 +3387,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3471,7 +3507,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="n">
+        <v>29.99</v>
+      </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
@@ -3489,11 +3527,11 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3599,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
+      <c r="D70" t="n">
+        <v>42.65</v>
+      </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
@@ -3579,7 +3619,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3784,8 +3824,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Servei fiscal 75,00
-</t>
+          <t>TERCERS DESPESES</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3910,7 +3949,9 @@
           <t>Amazon Online Spain, S.L.</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
+      <c r="D78" t="n">
+        <v>191.52</v>
+      </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
@@ -3928,11 +3969,11 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3952,7 +3993,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="n">
+        <v>839.76</v>
+      </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
@@ -3970,11 +4013,11 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -4122,7 +4165,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>524.85</v>
+      </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
@@ -4140,11 +4185,11 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4295,9 @@
           <t>e:</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>28.35</v>
+      </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
@@ -4264,11 +4311,11 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>umero</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -4292,7 +4339,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>130.47</v>
+      </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
@@ -4310,7 +4359,7 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -4464,7 +4513,9 @@
           <t>Dirección del vendedor: Amazon EU S.à r.l., Sucursal en España</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>2800.26</v>
+      </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
@@ -4482,11 +4533,11 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -4688,7 +4739,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>930.48</v>
+      </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
@@ -4706,7 +4759,7 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -4814,7 +4867,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>2.45</v>
+      </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
@@ -4832,7 +4887,7 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -4948,7 +5003,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>11.55</v>
+      </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
@@ -4966,7 +5023,7 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -5176,7 +5233,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
+      <c r="D107" t="n">
+        <v>90.22</v>
+      </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
         <is>
@@ -5194,7 +5253,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
@@ -5570,7 +5629,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>8528.610000000001</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
@@ -5588,7 +5649,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -5623,8 +5684,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Servei fiscal 75,00
-</t>
+          <t>TERCERS DESPESES</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5925,7 +5985,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr"/>
+      <c r="D124" t="n">
+        <v>363.48</v>
+      </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr">
         <is>
@@ -5943,7 +6005,7 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
@@ -6068,8 +6130,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Servei fiscal 75,00
-</t>
+          <t>TERCERS DESPESES</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6282,7 +6343,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
+      <c r="D132" t="n">
+        <v>21910.61</v>
+      </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
@@ -6300,7 +6363,7 @@
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
@@ -6324,7 +6387,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
+      <c r="D133" t="n">
+        <v>44.61</v>
+      </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
         <is>
@@ -6342,7 +6407,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
@@ -6410,7 +6475,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr"/>
+      <c r="D135" t="n">
+        <v>3.35</v>
+      </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
@@ -6428,7 +6495,7 @@
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
@@ -6494,7 +6561,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr"/>
+      <c r="D137" t="n">
+        <v>3.99</v>
+      </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
         <is>
@@ -6512,7 +6581,7 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
@@ -6536,7 +6605,9 @@
           <t>Dirección del vendedor: Amazon EU S.à r.l., Sucursal en España</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr"/>
+      <c r="D138" t="n">
+        <v>5840.93</v>
+      </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
@@ -6554,11 +6625,11 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -6708,7 +6779,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>7.98</v>
+      </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
@@ -6726,7 +6799,7 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
@@ -6751,7 +6824,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>80.61</v>
+        <v>0</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -6798,7 +6871,9 @@
           <t>Dirección del vendedor: Amazon EU S.à r.l., Sucursal en España</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>3613.35</v>
+      </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
@@ -6816,11 +6891,11 @@
         </is>
       </c>
       <c r="I144" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -6964,7 +7039,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>29/12/2024</t>
+          <t>20/12/2024</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6972,7 +7047,9 @@
           <t>E:</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>148.7</v>
+      </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
         <is>
@@ -6990,11 +7067,11 @@
         </is>
       </c>
       <c r="I148" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7014,7 +7091,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr"/>
+      <c r="D149" t="n">
+        <v>4.61</v>
+      </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr">
         <is>
@@ -7032,7 +7111,7 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
@@ -7152,7 +7231,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>90.44</v>
+      </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
         <is>
@@ -7166,11 +7247,11 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>n</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
@@ -7334,7 +7415,9 @@
           <t>Amazon Online Spain, S.L.</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>61.6</v>
+      </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
         <is>
@@ -7352,11 +7435,11 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7460,7 +7543,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr"/>
+      <c r="D159" t="n">
+        <v>6.55</v>
+      </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
         <is>
@@ -7478,7 +7563,7 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
@@ -7502,7 +7587,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>1524.86</v>
+      </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr">
         <is>
@@ -7520,7 +7607,7 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
@@ -7760,7 +7847,9 @@
           <t>Dirección del vendedor: Amazon EU S.à r.l., Sucursal en España</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr"/>
+      <c r="D166" t="n">
+        <v>1990.72</v>
+      </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr">
         <is>
@@ -7778,11 +7867,11 @@
         </is>
       </c>
       <c r="I166" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7907,8 +7996,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Servei fiscal 75,00
-</t>
+          <t>TERCERS DESPESES</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8079,7 +8167,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr"/>
+      <c r="D173" t="n">
+        <v>1493.45</v>
+      </c>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr">
         <is>
@@ -8097,7 +8187,7 @@
         </is>
       </c>
       <c r="I173" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
@@ -8163,7 +8253,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr"/>
+      <c r="D175" t="n">
+        <v>274.94</v>
+      </c>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr">
         <is>
@@ -8181,7 +8273,7 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J175" t="inlineStr">
         <is>
@@ -8427,7 +8519,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr"/>
+      <c r="D181" t="n">
+        <v>107.66</v>
+      </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr">
         <is>
@@ -8445,7 +8539,7 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
@@ -8469,7 +8563,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr"/>
+      <c r="D182" t="n">
+        <v>35.52</v>
+      </c>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr">
         <is>
@@ -8487,7 +8583,7 @@
         </is>
       </c>
       <c r="I182" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J182" t="inlineStr">
         <is>
@@ -8511,7 +8607,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr"/>
+      <c r="D183" t="n">
+        <v>145.15</v>
+      </c>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr">
         <is>
@@ -8529,7 +8627,7 @@
         </is>
       </c>
       <c r="I183" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J183" t="inlineStr">
         <is>
@@ -8554,7 +8652,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>26.58</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -8645,7 +8743,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr"/>
+      <c r="D186" t="n">
+        <v>5444.65</v>
+      </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr">
         <is>
@@ -8663,7 +8763,7 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
@@ -8687,7 +8787,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr"/>
+      <c r="D187" t="n">
+        <v>3710.74</v>
+      </c>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr">
         <is>
@@ -8705,7 +8807,7 @@
         </is>
       </c>
       <c r="I187" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
@@ -8729,7 +8831,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr"/>
+      <c r="D188" t="n">
+        <v>130.44</v>
+      </c>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr">
         <is>
@@ -8743,11 +8847,11 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>n</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="J188" t="inlineStr">
         <is>
@@ -8815,7 +8919,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr"/>
+      <c r="D190" t="n">
+        <v>35.64</v>
+      </c>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr">
         <is>
@@ -8833,7 +8939,7 @@
         </is>
       </c>
       <c r="I190" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
@@ -8903,7 +9009,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr"/>
+      <c r="D192" t="n">
+        <v>900.46</v>
+      </c>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr">
         <is>
@@ -8921,7 +9029,7 @@
         </is>
       </c>
       <c r="I192" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J192" t="inlineStr">
         <is>
@@ -8945,7 +9053,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr"/>
+      <c r="D193" t="n">
+        <v>219.78</v>
+      </c>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr">
         <is>
@@ -8963,7 +9073,7 @@
         </is>
       </c>
       <c r="I193" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
@@ -9033,7 +9143,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr"/>
+      <c r="D195" t="n">
+        <v>84.73999999999999</v>
+      </c>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr">
         <is>
@@ -9051,7 +9163,7 @@
         </is>
       </c>
       <c r="I195" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J195" t="inlineStr">
         <is>
@@ -9075,7 +9187,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr"/>
+      <c r="D196" t="n">
+        <v>5.75</v>
+      </c>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr">
         <is>
@@ -9089,11 +9203,11 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>n</t>
         </is>
       </c>
       <c r="I196" t="n">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
@@ -9303,7 +9417,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr"/>
+      <c r="D201" t="n">
+        <v>194.76</v>
+      </c>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr">
         <is>
@@ -9321,7 +9437,7 @@
         </is>
       </c>
       <c r="I201" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J201" t="inlineStr">
         <is>
@@ -9356,7 +9472,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>EEE IVg Unds. Precio D.% Subtotal</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -9365,11 +9481,11 @@
         </is>
       </c>
       <c r="I202" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -9429,7 +9545,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr"/>
+      <c r="D204" t="n">
+        <v>6.09</v>
+      </c>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr">
         <is>
@@ -9447,7 +9565,7 @@
         </is>
       </c>
       <c r="I204" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J204" t="inlineStr">
         <is>
@@ -10111,7 +10229,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>34.32</v>
+      </c>
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr">
         <is>
@@ -10129,7 +10249,7 @@
         </is>
       </c>
       <c r="I219" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J219" t="inlineStr">
         <is>

--- a/output/resultados.xlsx
+++ b/output/resultados.xlsx
@@ -734,7 +734,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1579,11 +1579,11 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Revisión manual</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1943,7 +1943,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2472,10 +2472,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>90.26000000000001</v>
+      </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
@@ -2493,7 +2495,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2514,7 +2516,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -2537,7 +2539,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2606,10 +2608,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>386.49</v>
+      </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
@@ -2627,7 +2631,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2830,7 +2834,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -2853,7 +2857,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3050,7 +3054,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -3073,7 +3077,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3364,7 +3368,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -3387,7 +3391,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3504,7 +3508,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -3527,7 +3531,7 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -3596,7 +3600,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -3619,7 +3623,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3724,7 +3728,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -3745,7 +3749,7 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3990,7 +3994,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -4013,7 +4017,7 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -4076,7 +4080,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -4097,7 +4101,7 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -4162,7 +4166,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -4185,7 +4189,7 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -4336,7 +4340,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -4359,7 +4363,7 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -4471,7 +4475,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>760.33</v>
+      </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
@@ -4489,7 +4495,7 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -4736,7 +4742,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -4759,7 +4765,7 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -4780,10 +4786,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>37.5</v>
+      </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
@@ -4801,7 +4809,7 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -4864,7 +4872,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -4887,7 +4895,7 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -5000,7 +5008,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -5023,7 +5031,7 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -5230,7 +5238,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -5253,7 +5261,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
@@ -5323,7 +5331,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
+      <c r="D109" t="n">
+        <v>1283.56</v>
+      </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
@@ -5341,7 +5351,7 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
@@ -5361,7 +5371,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
+      <c r="D110" t="n">
+        <v>306.8</v>
+      </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
@@ -5379,7 +5391,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -5626,7 +5638,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -5649,7 +5661,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -5982,7 +5994,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -6005,7 +6017,7 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
@@ -6026,7 +6038,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
@@ -6047,7 +6059,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
@@ -6160,7 +6172,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
@@ -6181,7 +6193,7 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
@@ -6253,7 +6265,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
+      <c r="D130" t="n">
+        <v>29.4</v>
+      </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
         <is>
@@ -6271,7 +6285,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
@@ -6340,7 +6354,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -6363,7 +6377,7 @@
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
@@ -6384,7 +6398,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -6407,7 +6421,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
@@ -6472,7 +6486,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -6495,7 +6509,7 @@
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
@@ -6516,10 +6530,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
+          <t>Amazon Services Europe S.à r.l.</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>37.5</v>
+      </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
         <is>
@@ -6537,7 +6553,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
@@ -6558,7 +6574,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -6581,7 +6597,7 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
@@ -6776,7 +6792,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -6799,7 +6815,7 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
@@ -7088,7 +7104,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -7111,7 +7127,7 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
@@ -7228,7 +7244,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -7251,7 +7267,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
@@ -7584,7 +7600,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -7607,7 +7623,7 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
@@ -8026,7 +8042,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
@@ -8047,7 +8063,7 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
@@ -8164,7 +8180,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -8187,7 +8203,7 @@
         </is>
       </c>
       <c r="I173" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
@@ -8208,7 +8224,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
@@ -8229,7 +8245,7 @@
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
@@ -8250,7 +8266,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -8273,7 +8289,7 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J175" t="inlineStr">
         <is>
@@ -8294,7 +8310,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
@@ -8315,7 +8331,7 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
@@ -8516,7 +8532,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -8539,7 +8555,7 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
@@ -8560,7 +8576,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -8583,7 +8599,7 @@
         </is>
       </c>
       <c r="I182" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J182" t="inlineStr">
         <is>
@@ -8604,7 +8620,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -8627,7 +8643,7 @@
         </is>
       </c>
       <c r="I183" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J183" t="inlineStr">
         <is>
@@ -8740,7 +8756,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -8763,7 +8779,7 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
@@ -8784,7 +8800,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -8807,7 +8823,7 @@
         </is>
       </c>
       <c r="I187" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
@@ -8828,7 +8844,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -8851,7 +8867,7 @@
         </is>
       </c>
       <c r="I188" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J188" t="inlineStr">
         <is>
@@ -8916,7 +8932,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -8939,7 +8955,7 @@
         </is>
       </c>
       <c r="I190" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
@@ -9006,7 +9022,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -9029,7 +9045,7 @@
         </is>
       </c>
       <c r="I192" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J192" t="inlineStr">
         <is>
@@ -9050,7 +9066,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -9073,7 +9089,7 @@
         </is>
       </c>
       <c r="I193" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
@@ -9140,7 +9156,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -9163,7 +9179,7 @@
         </is>
       </c>
       <c r="I195" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J195" t="inlineStr">
         <is>
@@ -9184,7 +9200,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D196" t="n">
@@ -9207,7 +9223,7 @@
         </is>
       </c>
       <c r="I196" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
@@ -9414,7 +9430,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -9437,7 +9453,7 @@
         </is>
       </c>
       <c r="I201" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J201" t="inlineStr">
         <is>
@@ -9542,7 +9558,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -9565,7 +9581,7 @@
         </is>
       </c>
       <c r="I204" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J204" t="inlineStr">
         <is>
@@ -10226,7 +10242,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Amazon Services Europe S.à r.l.</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -10249,7 +10265,7 @@
         </is>
       </c>
       <c r="I219" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="J219" t="inlineStr">
         <is>
